--- a/banco_girias.xlsx
+++ b/banco_girias.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUCASDOMINGOSLEAOGOM\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUCASDOMINGOSLEAOGOM\Desktop\Projetos\Tradutop-Novo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>id_giria</t>
   </si>
@@ -61,6 +61,114 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>Tosser</t>
+  </si>
+  <si>
+    <t>Idiota</t>
+  </si>
+  <si>
+    <t>####</t>
+  </si>
+  <si>
+    <t>#####</t>
+  </si>
+  <si>
+    <t>cock-up</t>
+  </si>
+  <si>
+    <t>arruinar, estragar algo</t>
+  </si>
+  <si>
+    <t>we've made a total cock-up of it</t>
+  </si>
+  <si>
+    <t>nós fizemos uma confusão total</t>
+  </si>
+  <si>
+    <t>Bloody</t>
+  </si>
+  <si>
+    <t>Que Droga!, Que saco!</t>
+  </si>
+  <si>
+    <t>Para algo que não deu certo</t>
+  </si>
+  <si>
+    <t>Bloody!</t>
+  </si>
+  <si>
+    <t>Give You A Bell</t>
+  </si>
+  <si>
+    <t>ligar para voce</t>
+  </si>
+  <si>
+    <t>Dê-lhe um sino</t>
+  </si>
+  <si>
+    <t>sangrento</t>
+  </si>
+  <si>
+    <t>Sem tradução</t>
+  </si>
+  <si>
+    <t>Blimey!</t>
+  </si>
+  <si>
+    <t>Caramba!</t>
+  </si>
+  <si>
+    <t>Usado para expressar surpresa</t>
+  </si>
+  <si>
+    <t>Blimey! did you see that mole rat lookin brit's teeth?</t>
+  </si>
+  <si>
+    <t>Caramba! Você viu esse rato procurando os dentes do britânico?</t>
+  </si>
+  <si>
+    <t>Wanker</t>
+  </si>
+  <si>
+    <t>Gutted</t>
+  </si>
+  <si>
+    <t>Esvaziado</t>
+  </si>
+  <si>
+    <t>Devastado(a)</t>
+  </si>
+  <si>
+    <t>After getting a few fish each, they swam in the pond before they went back to the beach to clean and gut the fish and prepare them for dinner.</t>
+  </si>
+  <si>
+    <t>Depois de pegar alguns peixes, eles nadaram na lagoa antes de voltarem para a praia para limpar e destruir o peixe e prepará-los para o jantar.</t>
+  </si>
+  <si>
+    <t>Bespoke </t>
+  </si>
+  <si>
+    <t>Feito sob medida</t>
+  </si>
+  <si>
+    <t>a bespoke suit</t>
+  </si>
+  <si>
+    <t>um terno feito sob medida</t>
+  </si>
+  <si>
+    <t>Chuffed</t>
+  </si>
+  <si>
+    <t>orgulhoso(a)</t>
+  </si>
+  <si>
+    <t>I'm dead chuffed to have wo</t>
+  </si>
+  <si>
+    <t>Estou morta e feliz por ter ganhado</t>
   </si>
 </sst>
 </file>
@@ -438,13 +546,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet 1"/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.125" bestFit="1" customWidth="1"/>
@@ -455,7 +563,7 @@
     <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -501,7 +609,167 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/banco_girias.xlsx
+++ b/banco_girias.xlsx
@@ -548,8 +548,8 @@
   <sheetPr codeName="Sheet 1"/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -633,6 +633,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -648,8 +651,14 @@
       <c r="F4" t="s">
         <v>21</v>
       </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
@@ -665,8 +674,14 @@
       <c r="F5" t="s">
         <v>23</v>
       </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
@@ -682,8 +697,14 @@
       <c r="F6" t="s">
         <v>16</v>
       </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
         <v>31</v>
       </c>
@@ -699,8 +720,14 @@
       <c r="F7" t="s">
         <v>35</v>
       </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8" t="s">
         <v>36</v>
       </c>
@@ -716,8 +743,14 @@
       <c r="F8" t="s">
         <v>16</v>
       </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="B9" t="s">
         <v>37</v>
       </c>
@@ -733,8 +766,14 @@
       <c r="F9" t="s">
         <v>41</v>
       </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="B10" t="s">
         <v>42</v>
       </c>
@@ -750,8 +789,14 @@
       <c r="F10" t="s">
         <v>45</v>
       </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="B11" t="s">
         <v>46</v>
       </c>
@@ -766,6 +811,9 @@
       </c>
       <c r="F11" t="s">
         <v>49</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
